--- a/Task_Success_Criteria.xlsx
+++ b/Task_Success_Criteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的研究生生活\博四\with Harry\Tool code\Benchmark\papers\草稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3454E179-73A0-4217-BBF4-3BD49EFBD2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06978F2-5AE3-46DF-903C-5E41904860AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,9 +331,6 @@
     <t>Colorfulness difference ensures background removal; threshold = 20, passes if the colorfulness of the original image minus the result image is greater than or equal to 20.</t>
   </si>
   <si>
-    <t>Checks output video integrity and style. Likely evaluates frame-wise style similarity via CLIP (e.g., score &gt; 0.25) and content consistency across frames (e.g., no excessive distortion per frame). Both style and content thresholds must be met for success.</t>
-  </si>
-  <si>
     <t>The output should be a CSV file with exactly 5 company records. Each record must include the columns “Company Name”, “Address”, and “Phone”. All fields must be non-empty and realistic: the Phone field must contain digits, the Company Name cannot be just numbers, and the Address should be at least 5 characters long (not obviously invalid). Only if all five entries meet these content rules (correct columns, no missing data, plausible values) is the output considered successful.</t>
   </si>
   <si>
@@ -358,13 +355,18 @@
     <t>The output .txt file must contain the entire text of the PDF (all pages) and exactly match the provided ground-truth text with 100% accuracy. The success criterion is that the text in the output matches the PDF’s content with no omissions or errors.</t>
   </si>
   <si>
+    <t>The output video is considered successful if the average SSIM between input and output frames is at least 0.7, and the FID score is no greater than 400.</t>
+  </si>
+  <si>
+    <t>The reconstructed image is considered successful if the PSNR exceeds 10, indicating acceptable visual similarity to the original.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">LPIPS </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -373,7 +375,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -382,16 +383,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -405,7 +404,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -414,7 +412,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -428,16 +425,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -446,16 +441,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -464,62 +457,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">LPIPS between content and output to measure style change (threshold 0.50, pass if LPIPS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0.5), and Histogram Intersection (HI) between output and style image to measure color/style similarity (threshold 0.60, pass if HI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0.6). Both conditions (sufficient content-to-output difference and good style match) must be met for success.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">LPIPS threshold = 0.50 (passes if LPIPS </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -528,16 +478,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -551,16 +499,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -569,7 +515,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -578,7 +523,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -592,16 +536,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -610,7 +552,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -619,7 +560,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -633,16 +573,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -651,16 +589,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -674,16 +610,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -692,16 +626,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -715,16 +647,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -733,16 +663,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -756,16 +684,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -774,16 +700,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -792,16 +716,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -815,16 +737,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -833,16 +753,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -851,16 +769,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -874,16 +790,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -892,7 +806,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -901,7 +814,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -915,16 +827,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -938,7 +848,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -947,7 +856,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -961,7 +869,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -970,7 +877,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -984,7 +890,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -993,7 +898,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1007,7 +911,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -1016,7 +919,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1025,16 +927,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1048,16 +948,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1066,16 +964,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1089,16 +985,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1112,7 +1006,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -1121,7 +1014,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1130,7 +1022,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -1139,7 +1030,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1148,16 +1038,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1166,7 +1054,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
@@ -1175,7 +1062,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1189,16 +1075,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1207,16 +1091,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1230,16 +1112,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1253,16 +1133,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1276,16 +1154,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1299,16 +1175,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1322,16 +1196,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1340,16 +1212,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1363,16 +1233,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1386,16 +1254,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1404,16 +1270,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1427,16 +1291,14 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1466,61 +1328,49 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -1594,60 +1444,58 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1932,649 +1780,637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.58203125" customWidth="1"/>
-    <col min="3" max="3" width="67.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="85.33203125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="9"/>
+    <col min="1" max="1" width="24.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.58203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="67.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="85.33203125" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="62" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="62" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="62" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="62" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="62" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" ht="62" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="77.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="16" t="s">
+    <row r="34" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="16" t="s">
+    <row r="43" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="16" t="s">
+    <row r="44" spans="1:4" ht="31" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="16" t="s">
+    <row r="46" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="16" t="s">
+    <row r="49" spans="1:4" ht="31" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="16" t="s">
+    <row r="50" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="16" t="s">
+    <row r="52" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="54" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="14" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="7" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="31" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="16" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="7" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
@@ -2585,6 +2421,18 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
